--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
@@ -53,26 +53,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ee1v5nb5" xfId="1"/>
-    <cellStyle name="ee1v5nb5_Alternate" xfId="2"/>
+    <cellStyle name="e4u12plq" xfId="1"/>
+    <cellStyle name="e4u12plq_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -87,7 +82,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
@@ -66,8 +66,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="e4u12plq" xfId="1"/>
-    <cellStyle name="e4u12plq_Alternate" xfId="2"/>
+    <cellStyle name="155v41vo" xfId="1"/>
+    <cellStyle name="155v41vo_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-02/Sample-02.xlsx
@@ -66,8 +66,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="155v41vo" xfId="1"/>
-    <cellStyle name="155v41vo_Alternate" xfId="2"/>
+    <cellStyle name="cjvyy0mp" xfId="1"/>
+    <cellStyle name="cjvyy0mp_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
